--- a/public/cohort/fileExcel/xlsxUIT/OPEN/EN_OPEN.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/OPEN/EN_OPEN.xlsx
@@ -950,9 +950,6 @@
     <t>MVT/K/4</t>
   </si>
   <si>
-    <t xml:space="preserve">                                                             Gespreksvaardigheid</t>
-  </si>
-  <si>
     <t>H</t>
   </si>
   <si>
@@ -966,6 +963,9 @@
   </si>
   <si>
     <t>Literatuur: boek lezen</t>
+  </si>
+  <si>
+    <t>kies...</t>
   </si>
   <si>
     <t>schrijfvaardigheid</t>
@@ -2146,7 +2146,7 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
@@ -2646,7 +2646,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602233796</v>
+        <v>44385.633287037</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3035,7 +3035,7 @@
       </c>
       <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="P18" s="32"/>
       <c r="R18" s="7">
@@ -3080,7 +3080,7 @@
       </c>
       <c r="AB18" s="7">
         <f>IF(AND(OR($O18=instellingen!$I$3,$O18=instellingen!$I$4),OR($M18=instellingen!$I$2,$M18=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC18" s="7">
         <f>IF(AND($O18=instellingen!$I$2,$M18=instellingen!$I$3),1,0)</f>
@@ -3096,7 +3096,7 @@
       </c>
       <c r="AF18" s="8">
         <f>SUM(R18:AE18)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:32" customHeight="1" ht="72">
@@ -3125,7 +3125,7 @@
       </c>
       <c r="N19" s="46"/>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="P19" s="32"/>
       <c r="R19" s="7">
@@ -3170,7 +3170,7 @@
       </c>
       <c r="AB19" s="7">
         <f>IF(AND(OR($O19=instellingen!$I$3,$O19=instellingen!$I$4),OR($M19=instellingen!$I$2,$M19=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC19" s="7">
         <f>IF(AND($O19=instellingen!$I$2,$M19=instellingen!$I$3),1,0)</f>
@@ -3186,7 +3186,7 @@
       </c>
       <c r="AF19" s="8">
         <f>SUM(R19:AE19)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:32" customHeight="1" ht="72">
@@ -3313,7 +3313,7 @@
         <v>1</v>
       </c>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P21" s="32" t="s">
         <v>103</v>
@@ -3407,7 +3407,7 @@
         <v>1</v>
       </c>
       <c r="O22" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P22" s="32" t="s">
         <v>101</v>
@@ -3497,7 +3497,7 @@
       </c>
       <c r="N23" s="46"/>
       <c r="O23" s="31" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="P23" s="32"/>
       <c r="R23" s="7">
@@ -3542,7 +3542,7 @@
       </c>
       <c r="AB23" s="7">
         <f>IF(AND(OR($O23=instellingen!$I$3,$O23=instellingen!$I$4),OR($M23=instellingen!$I$2,$M23=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC23" s="7">
         <f>IF(AND($O23=instellingen!$I$2,$M23=instellingen!$I$3),1,0)</f>
@@ -3558,7 +3558,7 @@
       </c>
       <c r="AF23" s="8">
         <f>SUM(R23:AE23)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:32">
@@ -3750,7 +3750,7 @@
         <v>1</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P30" s="32" t="s">
         <v>127</v>
@@ -3844,7 +3844,7 @@
         <v>1</v>
       </c>
       <c r="O31" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P31" s="32" t="s">
         <v>129</v>
@@ -4986,7 +4986,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602233796</v>
+        <v>44385.633287037</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6030,7 +6030,7 @@
         <v>1</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P30" s="32" t="s">
         <v>127</v>
@@ -6124,7 +6124,7 @@
         <v>1</v>
       </c>
       <c r="O31" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P31" s="32" t="s">
         <v>129</v>
@@ -7441,7 +7441,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602233796</v>
+        <v>44385.633275463</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7924,7 +7924,7 @@
         <v>2</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P19" s="32" t="s">
         <v>76</v>
@@ -8202,7 +8202,7 @@
         <v>2</v>
       </c>
       <c r="O22" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P22" s="32" t="s">
         <v>83</v>
@@ -9731,7 +9731,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602233796</v>
+        <v>44385.633287037</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -10103,7 +10103,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="I18" s="45"/>
       <c r="J18" s="29" t="s">
@@ -10214,7 +10214,7 @@
         <v>2</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P19" s="32" t="s">
         <v>76</v>
@@ -10492,7 +10492,7 @@
         <v>2</v>
       </c>
       <c r="O22" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P22" s="32" t="s">
         <v>83</v>
@@ -11521,7 +11521,7 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
@@ -11667,7 +11667,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D6" s="2">
         <v>600</v>
@@ -11677,7 +11677,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I6" s="45">
         <v>2</v>
@@ -11694,7 +11694,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -11739,7 +11739,7 @@
       </c>
       <c r="AB6" s="7">
         <f>IF(AND(OR($O6=instellingen!$I$3,$O6=instellingen!$I$4),OR($M6=instellingen!$I$2,$M6=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="7">
         <f>IF(AND($O6=instellingen!$I$2,$M6=instellingen!$I$3),1,0)</f>
@@ -11755,7 +11755,7 @@
       </c>
       <c r="AF6" s="8">
         <f>SUM(R6:AE6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
@@ -11782,7 +11782,7 @@
         <v>7</v>
       </c>
       <c r="K7" s="30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L7" s="45">
         <v>100</v>
@@ -11792,7 +11792,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -11837,7 +11837,7 @@
       </c>
       <c r="AB7" s="7">
         <f>IF(AND(OR($O7=instellingen!$I$3,$O7=instellingen!$I$4),OR($M7=instellingen!$I$2,$M7=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="7">
         <f>IF(AND($O7=instellingen!$I$2,$M7=instellingen!$I$3),1,0)</f>
@@ -11853,7 +11853,7 @@
       </c>
       <c r="AF7" s="8">
         <f>SUM(R7:AE7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
@@ -11893,7 +11893,7 @@
         <v>11</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R8" s="7">
         <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
@@ -11972,7 +11972,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I9" s="45">
         <v>2</v>
@@ -11989,7 +11989,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -12034,7 +12034,7 @@
       </c>
       <c r="AB9" s="7">
         <f>IF(AND(OR($O9=instellingen!$I$3,$O9=instellingen!$I$4),OR($M9=instellingen!$I$2,$M9=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="7">
         <f>IF(AND($O9=instellingen!$I$2,$M9=instellingen!$I$3),1,0)</f>
@@ -12050,7 +12050,7 @@
       </c>
       <c r="AF9" s="8">
         <f>SUM(R9:AE9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
@@ -12059,7 +12059,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602233796</v>
+        <v>44385.633287037</v>
       </c>
       <c r="D10" s="2">
         <v>604</v>
@@ -12086,7 +12086,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -12131,7 +12131,7 @@
       </c>
       <c r="AB10" s="7">
         <f>IF(AND(OR($O10=instellingen!$I$3,$O10=instellingen!$I$4),OR($M10=instellingen!$I$2,$M10=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="7">
         <f>IF(AND($O10=instellingen!$I$2,$M10=instellingen!$I$3),1,0)</f>
@@ -12147,7 +12147,7 @@
       </c>
       <c r="AF10" s="8">
         <f>SUM(R10:AE10)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
@@ -12183,7 +12183,7 @@
       </c>
       <c r="N11" s="46"/>
       <c r="O11" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P11" s="32"/>
       <c r="R11" s="7">
@@ -12228,7 +12228,7 @@
       </c>
       <c r="AB11" s="7">
         <f>IF(AND(OR($O11=instellingen!$I$3,$O11=instellingen!$I$4),OR($M11=instellingen!$I$2,$M11=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC11" s="7">
         <f>IF(AND($O11=instellingen!$I$2,$M11=instellingen!$I$3),1,0)</f>
@@ -12244,7 +12244,7 @@
       </c>
       <c r="AF11" s="8">
         <f>SUM(R11:AE11)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:32">
@@ -13811,7 +13811,7 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
@@ -13957,7 +13957,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D6" s="2">
         <v>39</v>
@@ -13967,7 +13967,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I6" s="45">
         <v>2</v>
@@ -13984,7 +13984,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -14029,7 +14029,7 @@
       </c>
       <c r="AB6" s="7">
         <f>IF(AND(OR($O6=instellingen!$I$3,$O6=instellingen!$I$4),OR($M6=instellingen!$I$2,$M6=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="7">
         <f>IF(AND($O6=instellingen!$I$2,$M6=instellingen!$I$3),1,0)</f>
@@ -14045,7 +14045,7 @@
       </c>
       <c r="AF6" s="8">
         <f>SUM(R6:AE6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
@@ -14085,7 +14085,7 @@
         <v>11</v>
       </c>
       <c r="P7" s="32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R7" s="7">
         <f>IF(OR(AND($G7&lt;&gt;instellingen!$G$2,ISBLANK($H7)),AND($G7=instellingen!$G$2,$H7&lt;&gt;"")),1,0)</f>
@@ -14182,7 +14182,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -14227,7 +14227,7 @@
       </c>
       <c r="AB8" s="7">
         <f>IF(AND(OR($O8=instellingen!$I$3,$O8=instellingen!$I$4),OR($M8=instellingen!$I$2,$M8=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="7">
         <f>IF(AND($O8=instellingen!$I$2,$M8=instellingen!$I$3),1,0)</f>
@@ -14243,7 +14243,7 @@
       </c>
       <c r="AF8" s="8">
         <f>SUM(R8:AE8)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
@@ -14279,7 +14279,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -14324,7 +14324,7 @@
       </c>
       <c r="AB9" s="7">
         <f>IF(AND(OR($O9=instellingen!$I$3,$O9=instellingen!$I$4),OR($M9=instellingen!$I$2,$M9=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="7">
         <f>IF(AND($O9=instellingen!$I$2,$M9=instellingen!$I$3),1,0)</f>
@@ -14340,7 +14340,7 @@
       </c>
       <c r="AF9" s="8">
         <f>SUM(R9:AE9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
@@ -14349,7 +14349,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602233796</v>
+        <v>44385.633287037</v>
       </c>
       <c r="D10" s="2">
         <v>43</v>
@@ -14376,7 +14376,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -14421,7 +14421,7 @@
       </c>
       <c r="AB10" s="7">
         <f>IF(AND(OR($O10=instellingen!$I$3,$O10=instellingen!$I$4),OR($M10=instellingen!$I$2,$M10=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="7">
         <f>IF(AND($O10=instellingen!$I$2,$M10=instellingen!$I$3),1,0)</f>
@@ -14437,7 +14437,7 @@
       </c>
       <c r="AF10" s="8">
         <f>SUM(R10:AE10)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
@@ -14473,7 +14473,7 @@
       </c>
       <c r="N11" s="46"/>
       <c r="O11" s="31" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="P11" s="32"/>
       <c r="R11" s="7">
@@ -14518,7 +14518,7 @@
       </c>
       <c r="AB11" s="7">
         <f>IF(AND(OR($O11=instellingen!$I$3,$O11=instellingen!$I$4),OR($M11=instellingen!$I$2,$M11=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC11" s="7">
         <f>IF(AND($O11=instellingen!$I$2,$M11=instellingen!$I$3),1,0)</f>
@@ -14534,7 +14534,7 @@
       </c>
       <c r="AF11" s="8">
         <f>SUM(R11:AE11)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:32">
@@ -14756,7 +14756,7 @@
         <v>2</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P18" s="32" t="s">
         <v>93</v>
@@ -16293,7 +16293,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -16647,7 +16647,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602233796</v>
+        <v>44385.633287037</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -17038,7 +17038,7 @@
         <v>2</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P18" s="32" t="s">
         <v>93</v>
@@ -18429,7 +18429,7 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
@@ -18602,7 +18602,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P6" s="32" t="s">
         <v>103</v>
@@ -18649,7 +18649,7 @@
       </c>
       <c r="AB6" s="7">
         <f>IF(AND(OR($O6=instellingen!$I$3,$O6=instellingen!$I$4),OR($M6=instellingen!$I$2,$M6=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="7">
         <f>IF(AND($O6=instellingen!$I$2,$M6=instellingen!$I$3),1,0)</f>
@@ -18665,7 +18665,7 @@
       </c>
       <c r="AF6" s="8">
         <f>SUM(R6:AE6)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
@@ -18700,7 +18700,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -18745,7 +18745,7 @@
       </c>
       <c r="AB7" s="7">
         <f>IF(AND(OR($O7=instellingen!$I$3,$O7=instellingen!$I$4),OR($M7=instellingen!$I$2,$M7=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="7">
         <f>IF(AND($O7=instellingen!$I$2,$M7=instellingen!$I$3),1,0)</f>
@@ -18761,7 +18761,7 @@
       </c>
       <c r="AF7" s="8">
         <f>SUM(R7:AE7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
@@ -18796,7 +18796,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P8" s="32" t="s">
         <v>106</v>
@@ -18843,7 +18843,7 @@
       </c>
       <c r="AB8" s="7">
         <f>IF(AND(OR($O8=instellingen!$I$3,$O8=instellingen!$I$4),OR($M8=instellingen!$I$2,$M8=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="7">
         <f>IF(AND($O8=instellingen!$I$2,$M8=instellingen!$I$3),1,0)</f>
@@ -18859,7 +18859,7 @@
       </c>
       <c r="AF8" s="8">
         <f>SUM(R8:AE8)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
@@ -18895,7 +18895,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P9" s="32" t="s">
         <v>108</v>
@@ -18942,7 +18942,7 @@
       </c>
       <c r="AB9" s="7">
         <f>IF(AND(OR($O9=instellingen!$I$3,$O9=instellingen!$I$4),OR($M9=instellingen!$I$2,$M9=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="7">
         <f>IF(AND($O9=instellingen!$I$2,$M9=instellingen!$I$3),1,0)</f>
@@ -18958,7 +18958,7 @@
       </c>
       <c r="AF9" s="8">
         <f>SUM(R9:AE9)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
@@ -18967,7 +18967,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602233796</v>
+        <v>44385.633287037</v>
       </c>
       <c r="D10" s="2">
         <v>620</v>
@@ -18994,7 +18994,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P10" s="32" t="s">
         <v>101</v>
@@ -19041,7 +19041,7 @@
       </c>
       <c r="AB10" s="7">
         <f>IF(AND(OR($O10=instellingen!$I$3,$O10=instellingen!$I$4),OR($M10=instellingen!$I$2,$M10=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="7">
         <f>IF(AND($O10=instellingen!$I$2,$M10=instellingen!$I$3),1,0)</f>
@@ -19057,7 +19057,7 @@
       </c>
       <c r="AF10" s="8">
         <f>SUM(R10:AE10)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
@@ -19093,7 +19093,7 @@
       </c>
       <c r="N11" s="46"/>
       <c r="O11" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P11" s="32" t="s">
         <v>111</v>
@@ -19140,7 +19140,7 @@
       </c>
       <c r="AB11" s="7">
         <f>IF(AND(OR($O11=instellingen!$I$3,$O11=instellingen!$I$4),OR($M11=instellingen!$I$2,$M11=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC11" s="7">
         <f>IF(AND($O11=instellingen!$I$2,$M11=instellingen!$I$3),1,0)</f>
@@ -19156,7 +19156,7 @@
       </c>
       <c r="AF11" s="8">
         <f>SUM(R11:AE11)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:32">
@@ -19166,33 +19166,6 @@
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
         <v>2020 - 2021</v>
-      </c>
-      <c r="D12" s="7">
-        <v>1105</v>
-      </c>
-      <c r="G12" s="7">
-        <v>4</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="I12" s="7">
-        <v>2</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L12" s="7">
-        <v>50</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P12" s="8" t="s">
-        <v>111</v>
       </c>
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
@@ -19221,33 +19194,18 @@
         <v>47</v>
       </c>
       <c r="D13" s="2">
-        <v>1106</v>
-      </c>
-      <c r="G13" s="47">
-        <v>4</v>
-      </c>
-      <c r="H13" s="47" t="s">
-        <v>110</v>
-      </c>
-      <c r="I13" s="47">
-        <v>2</v>
-      </c>
-      <c r="J13" s="47" t="s">
-        <v>10</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="G13" s="47" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  EN leerlaag A4 (schooljaar 2021 - 2022)</v>
+      </c>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
       <c r="K13" s="47"/>
-      <c r="L13" s="47">
-        <v>50</v>
-      </c>
-      <c r="M13" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P13" s="8" t="s">
-        <v>111</v>
-      </c>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
@@ -20767,7 +20725,7 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
@@ -20940,7 +20898,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -20985,7 +20943,7 @@
       </c>
       <c r="AB6" s="7">
         <f>IF(AND(OR($O6=instellingen!$I$3,$O6=instellingen!$I$4),OR($M6=instellingen!$I$2,$M6=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="7">
         <f>IF(AND($O6=instellingen!$I$2,$M6=instellingen!$I$3),1,0)</f>
@@ -21001,7 +20959,7 @@
       </c>
       <c r="AF6" s="8">
         <f>SUM(R6:AE6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
@@ -21036,7 +20994,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -21081,7 +21039,7 @@
       </c>
       <c r="AB7" s="7">
         <f>IF(AND(OR($O7=instellingen!$I$3,$O7=instellingen!$I$4),OR($M7=instellingen!$I$2,$M7=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="7">
         <f>IF(AND($O7=instellingen!$I$2,$M7=instellingen!$I$3),1,0)</f>
@@ -21097,7 +21055,7 @@
       </c>
       <c r="AF7" s="8">
         <f>SUM(R7:AE7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
@@ -21132,7 +21090,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -21177,7 +21135,7 @@
       </c>
       <c r="AB8" s="7">
         <f>IF(AND(OR($O8=instellingen!$I$3,$O8=instellingen!$I$4),OR($M8=instellingen!$I$2,$M8=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="7">
         <f>IF(AND($O8=instellingen!$I$2,$M8=instellingen!$I$3),1,0)</f>
@@ -21193,7 +21151,7 @@
       </c>
       <c r="AF8" s="8">
         <f>SUM(R8:AE8)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
@@ -21229,7 +21187,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -21274,7 +21232,7 @@
       </c>
       <c r="AB9" s="7">
         <f>IF(AND(OR($O9=instellingen!$I$3,$O9=instellingen!$I$4),OR($M9=instellingen!$I$2,$M9=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="7">
         <f>IF(AND($O9=instellingen!$I$2,$M9=instellingen!$I$3),1,0)</f>
@@ -21290,7 +21248,7 @@
       </c>
       <c r="AF9" s="8">
         <f>SUM(R9:AE9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
@@ -21299,7 +21257,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602233796</v>
+        <v>44385.633287037</v>
       </c>
       <c r="D10" s="2">
         <v>53</v>
@@ -21324,7 +21282,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -21369,7 +21327,7 @@
       </c>
       <c r="AB10" s="7">
         <f>IF(AND(OR($O10=instellingen!$I$3,$O10=instellingen!$I$4),OR($M10=instellingen!$I$2,$M10=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="7">
         <f>IF(AND($O10=instellingen!$I$2,$M10=instellingen!$I$3),1,0)</f>
@@ -21385,7 +21343,7 @@
       </c>
       <c r="AF10" s="8">
         <f>SUM(R10:AE10)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
@@ -21694,7 +21652,7 @@
       </c>
       <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P18" s="32"/>
       <c r="R18" s="7">
@@ -21739,7 +21697,7 @@
       </c>
       <c r="AB18" s="7">
         <f>IF(AND(OR($O18=instellingen!$I$3,$O18=instellingen!$I$4),OR($M18=instellingen!$I$2,$M18=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC18" s="7">
         <f>IF(AND($O18=instellingen!$I$2,$M18=instellingen!$I$3),1,0)</f>
@@ -21755,7 +21713,7 @@
       </c>
       <c r="AF18" s="8">
         <f>SUM(R18:AE18)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:32" customHeight="1" ht="72">
@@ -21878,7 +21836,7 @@
       </c>
       <c r="N20" s="46"/>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P20" s="32" t="s">
         <v>106</v>
@@ -21925,7 +21883,7 @@
       </c>
       <c r="AB20" s="7">
         <f>IF(AND(OR($O20=instellingen!$I$3,$O20=instellingen!$I$4),OR($M20=instellingen!$I$2,$M20=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC20" s="7">
         <f>IF(AND($O20=instellingen!$I$2,$M20=instellingen!$I$3),1,0)</f>
@@ -21941,7 +21899,7 @@
       </c>
       <c r="AF20" s="8">
         <f>SUM(R20:AE20)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:32" customHeight="1" ht="72">
@@ -21974,7 +21932,7 @@
         <v>1</v>
       </c>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P21" s="32" t="s">
         <v>103</v>
@@ -22068,7 +22026,7 @@
         <v>2</v>
       </c>
       <c r="O22" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P22" s="32" t="s">
         <v>101</v>
@@ -22160,7 +22118,7 @@
       </c>
       <c r="N23" s="46"/>
       <c r="O23" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P23" s="32" t="s">
         <v>111</v>
@@ -22207,7 +22165,7 @@
       </c>
       <c r="AB23" s="7">
         <f>IF(AND(OR($O23=instellingen!$I$3,$O23=instellingen!$I$4),OR($M23=instellingen!$I$2,$M23=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC23" s="7">
         <f>IF(AND($O23=instellingen!$I$2,$M23=instellingen!$I$3),1,0)</f>
@@ -22223,7 +22181,7 @@
       </c>
       <c r="AF23" s="8">
         <f>SUM(R23:AE23)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:32">

--- a/public/cohort/fileExcel/xlsxUIT/OPEN/EN_OPEN.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/OPEN/EN_OPEN.xlsx
@@ -956,6 +956,9 @@
     <t>Of Course Unit 1</t>
   </si>
   <si>
+    <t>kies...</t>
+  </si>
+  <si>
     <t xml:space="preserve">woordenboek N-E </t>
   </si>
   <si>
@@ -963,9 +966,6 @@
   </si>
   <si>
     <t>Literatuur: boek lezen</t>
-  </si>
-  <si>
-    <t>kies...</t>
   </si>
   <si>
     <t>schrijfvaardigheid</t>
@@ -2646,7 +2646,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633287037</v>
+        <v>44387.766018519</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3035,7 +3035,7 @@
       </c>
       <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="P18" s="32"/>
       <c r="R18" s="7">
@@ -3125,7 +3125,7 @@
       </c>
       <c r="N19" s="46"/>
       <c r="O19" s="31" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="P19" s="32"/>
       <c r="R19" s="7">
@@ -3497,7 +3497,7 @@
       </c>
       <c r="N23" s="46"/>
       <c r="O23" s="31" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="P23" s="32"/>
       <c r="R23" s="7">
@@ -4986,7 +4986,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633287037</v>
+        <v>44387.766018519</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7441,7 +7441,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633275463</v>
+        <v>44387.766006944</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9731,7 +9731,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633287037</v>
+        <v>44387.766006944</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -11694,7 +11694,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -11782,7 +11782,7 @@
         <v>7</v>
       </c>
       <c r="K7" s="30" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L7" s="45">
         <v>100</v>
@@ -11792,7 +11792,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -11893,7 +11893,7 @@
         <v>11</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R8" s="7">
         <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
@@ -11972,7 +11972,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I9" s="45">
         <v>2</v>
@@ -11989,7 +11989,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -12059,7 +12059,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633287037</v>
+        <v>44387.766006944</v>
       </c>
       <c r="D10" s="2">
         <v>604</v>
@@ -12086,7 +12086,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -12183,7 +12183,7 @@
       </c>
       <c r="N11" s="46"/>
       <c r="O11" s="31" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="P11" s="32"/>
       <c r="R11" s="7">
@@ -13984,7 +13984,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -14085,7 +14085,7 @@
         <v>11</v>
       </c>
       <c r="P7" s="32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R7" s="7">
         <f>IF(OR(AND($G7&lt;&gt;instellingen!$G$2,ISBLANK($H7)),AND($G7=instellingen!$G$2,$H7&lt;&gt;"")),1,0)</f>
@@ -14182,7 +14182,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -14279,7 +14279,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -14349,7 +14349,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633287037</v>
+        <v>44387.766006944</v>
       </c>
       <c r="D10" s="2">
         <v>43</v>
@@ -14376,7 +14376,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -14473,7 +14473,7 @@
       </c>
       <c r="N11" s="46"/>
       <c r="O11" s="31" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="P11" s="32"/>
       <c r="R11" s="7">
@@ -16647,7 +16647,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633287037</v>
+        <v>44387.766006944</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -18602,7 +18602,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="P6" s="32" t="s">
         <v>103</v>
@@ -18700,7 +18700,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -18796,7 +18796,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="P8" s="32" t="s">
         <v>106</v>
@@ -18895,7 +18895,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="P9" s="32" t="s">
         <v>108</v>
@@ -18967,7 +18967,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633287037</v>
+        <v>44387.766018519</v>
       </c>
       <c r="D10" s="2">
         <v>620</v>
@@ -18994,7 +18994,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="P10" s="32" t="s">
         <v>101</v>
@@ -19093,7 +19093,7 @@
       </c>
       <c r="N11" s="46"/>
       <c r="O11" s="31" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="P11" s="32" t="s">
         <v>111</v>
@@ -20898,7 +20898,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -20994,7 +20994,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -21090,7 +21090,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -21187,7 +21187,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -21257,7 +21257,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633287037</v>
+        <v>44387.766018519</v>
       </c>
       <c r="D10" s="2">
         <v>53</v>
@@ -21282,7 +21282,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -21652,7 +21652,7 @@
       </c>
       <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="P18" s="32"/>
       <c r="R18" s="7">
@@ -21836,7 +21836,7 @@
       </c>
       <c r="N20" s="46"/>
       <c r="O20" s="31" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="P20" s="32" t="s">
         <v>106</v>
@@ -22118,7 +22118,7 @@
       </c>
       <c r="N23" s="46"/>
       <c r="O23" s="31" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="P23" s="32" t="s">
         <v>111</v>
